--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2210586.628972374</v>
+        <v>-2212236.58490592</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>389322.5307001508</v>
+        <v>239446.5951107007</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,64 +662,64 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>51.18152042494068</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>244.5627323611424</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G2" t="n">
+        <v>15.28796821707176</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>148.9413660216818</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>208.5348089219828</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.65694306953081</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>113.0482273159747</v>
       </c>
     </row>
     <row r="4">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>137.081565665098</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>137.081565665098</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>39.31953127108728</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,13 +911,13 @@
         <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>65.71971359461519</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>61.50456588817283</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9381254702172</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>168.7061379798001</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>314.9495391993287</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>314.9495391993286</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.0277006815614</v>
       </c>
       <c r="H8" t="n">
-        <v>314.9495391993286</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.5923354441786</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>202.7526677411857</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.8918758251627</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.9843894591712</v>
+        <v>314.9495391993287</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>145.8088033364762</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.1963594838132</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>84.33001976689758</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>91.02114946163294</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>48.59187187090674</v>
       </c>
       <c r="U9" t="n">
-        <v>211.4043119504526</v>
+        <v>225.9317006546987</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>75.83131598662594</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>217.6700264500482</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>141.8387104634224</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>357.419366816053</v>
       </c>
       <c r="D11" t="n">
-        <v>346.8295166657284</v>
+        <v>293.054705584568</v>
       </c>
       <c r="E11" t="n">
-        <v>374.0768451173072</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>399.0225207867569</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.18840276994</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>308.4677588965121</v>
+        <v>308.467758896512</v>
       </c>
       <c r="I11" t="n">
         <v>115.4624951772044</v>
@@ -1424,16 +1424,16 @@
         <v>205.345629752399</v>
       </c>
       <c r="U11" t="n">
-        <v>34.41243641565214</v>
+        <v>243.3112631696627</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>319.8987335151803</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>341.3874437624584</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>361.8775757235144</v>
       </c>
       <c r="Y11" t="n">
         <v>378.384413701099</v>
@@ -1467,7 +1467,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I12" t="n">
-        <v>47.74894400914855</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.05405284676733</v>
+        <v>25.05405284676736</v>
       </c>
       <c r="S12" t="n">
-        <v>149.2146408812902</v>
+        <v>149.2146408812903</v>
       </c>
       <c r="T12" t="n">
         <v>195.2890311093384</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.9784552269828</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>68.00636063783838</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>138.5804376916146</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>137.5675230679767</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35.01141539863928</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>13.80726930103428</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>123.8412787319818</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>278.4101886865866</v>
+        <v>278.4101886865865</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>244.2841183688734</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>278.6694733816364</v>
       </c>
       <c r="X13" t="n">
-        <v>217.8561304340826</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>347.2238344520998</v>
+        <v>347.2238344520997</v>
       </c>
       <c r="C14" t="n">
-        <v>329.7628845596268</v>
+        <v>329.7628845596267</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1730344093022</v>
+        <v>319.1730344093021</v>
       </c>
       <c r="E14" t="n">
-        <v>346.420362860881</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>371.3660385303307</v>
+        <v>371.3660385303306</v>
       </c>
       <c r="G14" t="n">
-        <v>377.5319205135138</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>280.8112766400859</v>
+        <v>187.548214105711</v>
       </c>
       <c r="I14" t="n">
-        <v>87.80601292077822</v>
+        <v>87.80601292077809</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>121.9918592797591</v>
+        <v>121.991859279759</v>
       </c>
       <c r="T14" t="n">
-        <v>3.443984290629587</v>
+        <v>177.6891474959727</v>
       </c>
       <c r="U14" t="n">
-        <v>215.6547809132365</v>
+        <v>215.6547809132364</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>292.242251258754</v>
       </c>
       <c r="W14" t="n">
-        <v>313.7309615060323</v>
+        <v>313.7309615060321</v>
       </c>
       <c r="X14" t="n">
-        <v>334.2210934670883</v>
+        <v>334.2210934670882</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>350.7279314446727</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.3219729705565</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>109.9110408115505</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>131.4668507063328</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>170.8332198991506</v>
+        <v>170.8332198991505</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>188.1025178791712</v>
       </c>
       <c r="U16" t="n">
-        <v>250.7537064301604</v>
+        <v>250.7537064301603</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>216.6276361124471</v>
       </c>
       <c r="W16" t="n">
-        <v>251.0129911252102</v>
+        <v>251.0129911252101</v>
       </c>
       <c r="X16" t="n">
-        <v>138.2280792981982</v>
+        <v>119.1977897950209</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E17" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F17" t="n">
         <v>316.885015469746</v>
@@ -1862,7 +1862,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I17" t="n">
-        <v>33.32498986019345</v>
+        <v>33.3249898601935</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.51083621917438</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T17" t="n">
         <v>123.2081244353881</v>
@@ -1904,10 +1904,10 @@
         <v>237.7612281981694</v>
       </c>
       <c r="W17" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X17" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y17" t="n">
         <v>296.2469083840881</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.8409499099718</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C19" t="n">
-        <v>77.25579082666233</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D19" t="n">
-        <v>58.62444274624686</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E19" t="n">
-        <v>56.44293237460367</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F19" t="n">
-        <v>55.43001775096575</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G19" t="n">
-        <v>76.98582764574807</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H19" t="n">
-        <v>63.21968069866782</v>
+        <v>63.21968069866699</v>
       </c>
       <c r="I19" t="n">
-        <v>34.96204714633785</v>
+        <v>34.96204714633753</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.70377341497091</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S19" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T19" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U19" t="n">
         <v>196.2726833695757</v>
@@ -2096,10 +2096,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I20" t="n">
-        <v>33.32498986019347</v>
+        <v>33.3249898601935</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917444</v>
       </c>
       <c r="T20" t="n">
         <v>123.2081244353881</v>
@@ -2178,7 +2178,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I21" t="n">
-        <v>47.74894400914855</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.05405284676733</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S21" t="n">
         <v>149.2146408812902</v>
@@ -2254,10 +2254,10 @@
         <v>76.98582764574812</v>
       </c>
       <c r="H22" t="n">
-        <v>63.21968069866669</v>
+        <v>63.21968069866699</v>
       </c>
       <c r="I22" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633753</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.70377341497095</v>
+        <v>41.7037734149708</v>
       </c>
       <c r="S22" t="n">
         <v>116.3521968385659</v>
@@ -2293,7 +2293,7 @@
         <v>133.6214948185867</v>
       </c>
       <c r="U22" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695759</v>
       </c>
       <c r="V22" t="n">
         <v>162.1466130518625</v>
@@ -2381,7 +2381,7 @@
         <v>259.2499384454476</v>
       </c>
       <c r="X23" t="n">
-        <v>279.7400704065042</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y23" t="n">
         <v>296.2469083840881</v>
@@ -2494,7 +2494,7 @@
         <v>63.21968069866699</v>
       </c>
       <c r="I25" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>41.70377341497095</v>
       </c>
       <c r="S25" t="n">
-        <v>116.3521968385657</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T25" t="n">
         <v>133.6214948185867</v>
       </c>
       <c r="U25" t="n">
-        <v>196.2726833695759</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V25" t="n">
         <v>162.1466130518625</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>292.7428113915155</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C26" t="n">
         <v>275.2818614990421</v>
@@ -2570,10 +2570,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H26" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795014</v>
       </c>
       <c r="I26" t="n">
-        <v>33.32498986019344</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.51083621917439</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T26" t="n">
         <v>123.2081244353881</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.84094990997181</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C28" t="n">
-        <v>77.25579082666235</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D28" t="n">
-        <v>58.62444274624687</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E28" t="n">
-        <v>56.44293237460369</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F28" t="n">
-        <v>55.43001775096576</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G28" t="n">
-        <v>76.98582764574809</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H28" t="n">
-        <v>63.21968069866696</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I28" t="n">
-        <v>34.96204714633785</v>
+        <v>34.96204714633769</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S28" t="n">
         <v>116.3521968385659</v>
       </c>
       <c r="T28" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U28" t="n">
-        <v>196.2726833695762</v>
+        <v>196.2726833695755</v>
       </c>
       <c r="V28" t="n">
         <v>162.1466130518625</v>
@@ -2807,10 +2807,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H29" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I29" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T29" t="n">
         <v>123.2081244353881</v>
@@ -2849,7 +2849,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V29" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W29" t="n">
         <v>259.2499384454476</v>
@@ -2858,7 +2858,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y29" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.84094990997187</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C31" t="n">
-        <v>77.25579082666241</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D31" t="n">
-        <v>58.62444274624693</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E31" t="n">
-        <v>56.44293237460374</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F31" t="n">
-        <v>55.43001775096582</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G31" t="n">
-        <v>76.98582764574815</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H31" t="n">
-        <v>63.21968069866702</v>
+        <v>63.21968069866699</v>
       </c>
       <c r="I31" t="n">
-        <v>34.96204714633791</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.7037734149708</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S31" t="n">
         <v>116.3521968385659</v>
       </c>
       <c r="T31" t="n">
-        <v>133.6214948185873</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U31" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695755</v>
       </c>
       <c r="V31" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W31" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X31" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I32" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T32" t="n">
-        <v>123.2081244353881</v>
+        <v>123.2081244353895</v>
       </c>
       <c r="U32" t="n">
         <v>161.1737578526518</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.84094990997183</v>
+        <v>89.84094990997181</v>
       </c>
       <c r="C34" t="n">
-        <v>77.25579082666236</v>
+        <v>77.25579082666235</v>
       </c>
       <c r="D34" t="n">
-        <v>58.62444274624688</v>
+        <v>58.62444274624687</v>
       </c>
       <c r="E34" t="n">
-        <v>56.4429323746037</v>
+        <v>56.44293237460369</v>
       </c>
       <c r="F34" t="n">
-        <v>55.43001775096577</v>
+        <v>55.43001775096576</v>
       </c>
       <c r="G34" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H34" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I34" t="n">
-        <v>34.96204714633797</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.70377341497094</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S34" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T34" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U34" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695762</v>
       </c>
       <c r="V34" t="n">
         <v>162.1466130518625</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>292.742811391515</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C35" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D35" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487186</v>
       </c>
       <c r="E35" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F35" t="n">
-        <v>316.8850154697459</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G35" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H35" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I35" t="n">
-        <v>33.32498986019341</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.51083621917437</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T35" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U35" t="n">
-        <v>161.1737578526517</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V35" t="n">
         <v>237.7612281981694</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.84094990997178</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C37" t="n">
-        <v>77.25579082666232</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D37" t="n">
-        <v>58.62444274624684</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E37" t="n">
-        <v>56.44293237460366</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F37" t="n">
-        <v>55.43001775096573</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G37" t="n">
-        <v>76.98582764574807</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H37" t="n">
-        <v>63.21968069866695</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I37" t="n">
-        <v>34.96204714633783</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.70377341497089</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S37" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T37" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U37" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695755</v>
       </c>
       <c r="V37" t="n">
         <v>162.1466130518625</v>
@@ -3487,7 +3487,7 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X37" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y37" t="n">
         <v>128.5936230801293</v>
@@ -3518,10 +3518,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H38" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I38" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T38" t="n">
         <v>123.2081244353881</v>
@@ -3560,7 +3560,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V38" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W38" t="n">
         <v>259.2499384454476</v>
@@ -3569,7 +3569,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.84094990997187</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C40" t="n">
-        <v>77.25579082666241</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D40" t="n">
-        <v>58.62444274624693</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E40" t="n">
-        <v>56.44293237460374</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F40" t="n">
-        <v>55.43001775096582</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G40" t="n">
-        <v>76.98582764574815</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H40" t="n">
-        <v>63.21968069866644</v>
+        <v>63.21968069866699</v>
       </c>
       <c r="I40" t="n">
-        <v>34.96204714633751</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.70377341497035</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S40" t="n">
         <v>116.3521968385659</v>
@@ -3715,19 +3715,19 @@
         <v>133.6214948185867</v>
       </c>
       <c r="U40" t="n">
-        <v>196.2726833695762</v>
+        <v>196.2726833695752</v>
       </c>
       <c r="V40" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W40" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X40" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H41" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I41" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019351</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917448</v>
       </c>
       <c r="T41" t="n">
         <v>123.2081244353881</v>
@@ -3797,7 +3797,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V41" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W41" t="n">
         <v>259.2499384454476</v>
@@ -3806,7 +3806,7 @@
         <v>279.7400704065036</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997188</v>
       </c>
       <c r="C43" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666242</v>
       </c>
       <c r="D43" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624694</v>
       </c>
       <c r="E43" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460376</v>
       </c>
       <c r="F43" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096583</v>
       </c>
       <c r="G43" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574816</v>
       </c>
       <c r="H43" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866703</v>
       </c>
       <c r="I43" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633792</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.70377341497058</v>
+        <v>41.703773414971</v>
       </c>
       <c r="S43" t="n">
         <v>116.3521968385659</v>
@@ -3952,19 +3952,19 @@
         <v>133.6214948185867</v>
       </c>
       <c r="U43" t="n">
-        <v>196.2726833695762</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V43" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W43" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X43" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E44" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F44" t="n">
         <v>316.885015469746</v>
@@ -3992,10 +3992,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H44" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I44" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T44" t="n">
         <v>123.2081244353881</v>
@@ -4034,16 +4034,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V44" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W44" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X44" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.84094990997187</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C46" t="n">
-        <v>77.25579082666241</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D46" t="n">
-        <v>58.62444274624693</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E46" t="n">
-        <v>56.44293237460374</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F46" t="n">
-        <v>55.43001775096582</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G46" t="n">
-        <v>76.98582764574815</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H46" t="n">
-        <v>63.21968069866702</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I46" t="n">
-        <v>34.96204714633791</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.70377341497098</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S46" t="n">
         <v>116.3521968385659</v>
       </c>
       <c r="T46" t="n">
-        <v>133.6214948185873</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U46" t="n">
-        <v>196.2726833695752</v>
+        <v>196.2726833695755</v>
       </c>
       <c r="V46" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W46" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X46" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y46" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>520.5766453202008</v>
+        <v>333.7389791981387</v>
       </c>
       <c r="C2" t="n">
-        <v>520.5766453202008</v>
+        <v>333.7389791981387</v>
       </c>
       <c r="D2" t="n">
-        <v>520.5766453202008</v>
+        <v>282.0404737184007</v>
       </c>
       <c r="E2" t="n">
-        <v>273.5435823291478</v>
+        <v>282.0404737184007</v>
       </c>
       <c r="F2" t="n">
-        <v>266.5980815799443</v>
+        <v>35.00741072734773</v>
       </c>
       <c r="G2" t="n">
         <v>19.56501858889139</v>
@@ -4352,28 +4352,28 @@
         <v>978.2509294445697</v>
       </c>
       <c r="R2" t="n">
-        <v>978.2509294445697</v>
+        <v>827.8051051802446</v>
       </c>
       <c r="S2" t="n">
-        <v>978.2509294445697</v>
+        <v>827.8051051802446</v>
       </c>
       <c r="T2" t="n">
-        <v>978.2509294445697</v>
+        <v>827.8051051802446</v>
       </c>
       <c r="U2" t="n">
-        <v>978.2509294445697</v>
+        <v>827.8051051802446</v>
       </c>
       <c r="V2" t="n">
-        <v>767.6097083112537</v>
+        <v>827.8051051802446</v>
       </c>
       <c r="W2" t="n">
-        <v>767.6097083112537</v>
+        <v>580.7720421891917</v>
       </c>
       <c r="X2" t="n">
-        <v>767.6097083112537</v>
+        <v>580.7720421891917</v>
       </c>
       <c r="Y2" t="n">
-        <v>767.6097083112537</v>
+        <v>580.7720421891917</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327.7368832555982</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C3" t="n">
-        <v>327.7368832555982</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D3" t="n">
-        <v>178.8024735943469</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E3" t="n">
         <v>19.56501858889139</v>
@@ -4410,22 +4410,22 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>146.1858617037014</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L3" t="n">
-        <v>146.1858617037014</v>
+        <v>249.5281244572406</v>
       </c>
       <c r="M3" t="n">
-        <v>388.3029667412324</v>
+        <v>491.6452294947716</v>
       </c>
       <c r="N3" t="n">
-        <v>630.4200717787634</v>
+        <v>733.7623345323026</v>
       </c>
       <c r="O3" t="n">
-        <v>872.5371768162944</v>
+        <v>907.8577401332359</v>
       </c>
       <c r="P3" t="n">
-        <v>908.8563709312403</v>
+        <v>907.8577401332359</v>
       </c>
       <c r="Q3" t="n">
         <v>978.2509294445697</v>
@@ -4437,22 +4437,22 @@
         <v>804.9818487541377</v>
       </c>
       <c r="T3" t="n">
-        <v>602.8274275453307</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="U3" t="n">
-        <v>602.8274275453307</v>
+        <v>576.7587556281616</v>
       </c>
       <c r="V3" t="n">
-        <v>602.8274275453307</v>
+        <v>341.6066473964189</v>
       </c>
       <c r="W3" t="n">
-        <v>602.8274275453307</v>
+        <v>341.6066473964189</v>
       </c>
       <c r="X3" t="n">
-        <v>602.8274275453307</v>
+        <v>133.755147190886</v>
       </c>
       <c r="Y3" t="n">
-        <v>395.0671287803768</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="4">
@@ -4513,19 +4513,19 @@
         <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
         <v>19.56501858889139</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>575.1708122604532</v>
+        <v>313.4082527667006</v>
       </c>
       <c r="C5" t="n">
-        <v>575.1708122604532</v>
+        <v>313.4082527667006</v>
       </c>
       <c r="D5" t="n">
-        <v>309.26976786483</v>
+        <v>313.4082527667006</v>
       </c>
       <c r="E5" t="n">
-        <v>309.26976786483</v>
+        <v>47.50720837107774</v>
       </c>
       <c r="F5" t="n">
-        <v>302.3242671156266</v>
+        <v>40.56170762187426</v>
       </c>
       <c r="G5" t="n">
-        <v>286.9604071117565</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H5" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I5" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098028</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369335</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885148</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415462</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>907.4554057415462</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T5" t="n">
-        <v>907.4554057415462</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="U5" t="n">
-        <v>841.0718566560763</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="V5" t="n">
-        <v>841.0718566560763</v>
+        <v>619.0259954159469</v>
       </c>
       <c r="W5" t="n">
-        <v>841.0718566560763</v>
+        <v>353.1249510203241</v>
       </c>
       <c r="X5" t="n">
-        <v>575.1708122604532</v>
+        <v>353.1249510203241</v>
       </c>
       <c r="Y5" t="n">
-        <v>575.1708122604532</v>
+        <v>353.1249510203241</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242.4226418510564</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="C6" t="n">
-        <v>242.4226418510564</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="D6" t="n">
-        <v>180.2968177215889</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>24.95018035683217</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K6" t="n">
-        <v>24.95018035683217</v>
+        <v>49.74776658733714</v>
       </c>
       <c r="L6" t="n">
-        <v>254.9132862251813</v>
+        <v>279.7108724556863</v>
       </c>
       <c r="M6" t="n">
-        <v>275.9536685529086</v>
+        <v>540.3204860678362</v>
       </c>
       <c r="N6" t="n">
-        <v>536.5632821650588</v>
+        <v>800.9300996799861</v>
       </c>
       <c r="O6" t="n">
-        <v>785.316696249021</v>
+        <v>800.9300996799861</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271197</v>
+        <v>983.5735772933371</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806668</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S6" t="n">
-        <v>880.4795283993085</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T6" t="n">
-        <v>678.4944708143844</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U6" t="n">
-        <v>450.2741420565892</v>
+        <v>726.6826938902474</v>
       </c>
       <c r="V6" t="n">
-        <v>450.2741420565892</v>
+        <v>726.6826938902474</v>
       </c>
       <c r="W6" t="n">
-        <v>450.2741420565892</v>
+        <v>726.6826938902474</v>
       </c>
       <c r="X6" t="n">
-        <v>242.4226418510564</v>
+        <v>556.2724535066109</v>
       </c>
       <c r="Y6" t="n">
-        <v>242.4226418510564</v>
+        <v>348.5121547416569</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>891.5185710521471</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C7" t="n">
-        <v>891.5185710521471</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D7" t="n">
-        <v>891.5185710521471</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E7" t="n">
-        <v>891.5185710521471</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F7" t="n">
-        <v>891.5185710521471</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G7" t="n">
-        <v>891.5185710521471</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H7" t="n">
-        <v>891.5185710521471</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I7" t="n">
-        <v>891.5185710521471</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J7" t="n">
-        <v>891.5185710521471</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K7" t="n">
-        <v>891.5185710521471</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>924.9408477296167</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M7" t="n">
-        <v>970.5690754315377</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N7" t="n">
-        <v>1020.546982284664</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O7" t="n">
-        <v>1050.693372907662</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>1052.968135806668</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q7" t="n">
-        <v>1052.968135806668</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.968135806668</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.968135806668</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.968135806668</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.968135806668</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.968135806668</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W7" t="n">
-        <v>1052.968135806668</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.968135806668</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y7" t="n">
-        <v>891.5185710521471</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>676.6371541260661</v>
+        <v>47.32095952309058</v>
       </c>
       <c r="C8" t="n">
-        <v>676.6371541260661</v>
+        <v>47.32095952309058</v>
       </c>
       <c r="D8" t="n">
-        <v>676.6371541260661</v>
+        <v>47.32095952309058</v>
       </c>
       <c r="E8" t="n">
-        <v>676.6371541260661</v>
+        <v>47.32095952309058</v>
       </c>
       <c r="F8" t="n">
-        <v>358.5063064499766</v>
+        <v>40.3754587738871</v>
       </c>
       <c r="G8" t="n">
-        <v>343.3268108120358</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="J8" t="n">
-        <v>36.47614005386674</v>
+        <v>36.47614005386663</v>
       </c>
       <c r="K8" t="n">
         <v>174.1270054172969</v>
@@ -4811,43 +4811,43 @@
         <v>397.1717033649883</v>
       </c>
       <c r="M8" t="n">
-        <v>661.9584514170999</v>
+        <v>661.9584514171</v>
       </c>
       <c r="N8" t="n">
-        <v>916.3977283329041</v>
+        <v>916.3977283329043</v>
       </c>
       <c r="O8" t="n">
-        <v>1111.469884645407</v>
+        <v>1111.469884645408</v>
       </c>
       <c r="P8" t="n">
         <v>1240.285073996753</v>
       </c>
       <c r="Q8" t="n">
-        <v>1259.798156797314</v>
+        <v>1259.798156797315</v>
       </c>
       <c r="R8" t="n">
-        <v>1125.866504833497</v>
+        <v>1259.798156797315</v>
       </c>
       <c r="S8" t="n">
-        <v>921.0658303474512</v>
+        <v>1054.997482311269</v>
       </c>
       <c r="T8" t="n">
-        <v>921.0658303474512</v>
+        <v>830.8642744070639</v>
       </c>
       <c r="U8" t="n">
-        <v>921.0658303474512</v>
+        <v>830.8642744070639</v>
       </c>
       <c r="V8" t="n">
-        <v>676.6371541260661</v>
+        <v>512.7334267309743</v>
       </c>
       <c r="W8" t="n">
-        <v>676.6371541260661</v>
+        <v>512.7334267309743</v>
       </c>
       <c r="X8" t="n">
-        <v>676.6371541260661</v>
+        <v>365.4518071991802</v>
       </c>
       <c r="Y8" t="n">
-        <v>676.6371541260661</v>
+        <v>365.4518071991802</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>395.4945405542237</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="C9" t="n">
-        <v>395.4945405542237</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="D9" t="n">
-        <v>395.4945405542237</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="E9" t="n">
-        <v>395.4945405542237</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="F9" t="n">
-        <v>248.9599825811087</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="G9" t="n">
-        <v>110.3778012843277</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="H9" t="n">
-        <v>110.3778012843277</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="I9" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="J9" t="n">
-        <v>38.22097954830841</v>
+        <v>38.22097954830845</v>
       </c>
       <c r="K9" t="n">
-        <v>187.1036503059361</v>
+        <v>38.22097954830845</v>
       </c>
       <c r="L9" t="n">
-        <v>448.6991706891322</v>
+        <v>268.1840854166576</v>
       </c>
       <c r="M9" t="n">
-        <v>760.4992144964674</v>
+        <v>488.7815654367444</v>
       </c>
       <c r="N9" t="n">
-        <v>760.4992144964674</v>
+        <v>800.5816092440798</v>
       </c>
       <c r="O9" t="n">
-        <v>989.1634174681274</v>
+        <v>1049.335023328042</v>
       </c>
       <c r="P9" t="n">
-        <v>1171.806895081478</v>
+        <v>1259.798156797315</v>
       </c>
       <c r="Q9" t="n">
-        <v>1259.798156797314</v>
+        <v>1259.798156797315</v>
       </c>
       <c r="R9" t="n">
-        <v>1259.798156797314</v>
+        <v>1167.857601785564</v>
       </c>
       <c r="S9" t="n">
-        <v>1259.798156797314</v>
+        <v>1167.857601785564</v>
       </c>
       <c r="T9" t="n">
-        <v>1259.798156797314</v>
+        <v>1118.774902926063</v>
       </c>
       <c r="U9" t="n">
-        <v>1046.258447756453</v>
+        <v>890.5610638809126</v>
       </c>
       <c r="V9" t="n">
-        <v>811.1063395247104</v>
+        <v>655.4089556491699</v>
       </c>
       <c r="W9" t="n">
-        <v>811.1063395247104</v>
+        <v>401.1715989209682</v>
       </c>
       <c r="X9" t="n">
-        <v>603.2548393191776</v>
+        <v>401.1715989209682</v>
       </c>
       <c r="Y9" t="n">
-        <v>395.4945405542237</v>
+        <v>193.4113001560143</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="C10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="D10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="E10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="F10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="G10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="H10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="I10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="J10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="K10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="L10" t="n">
-        <v>70.6687274397183</v>
+        <v>70.66872743971834</v>
       </c>
       <c r="M10" t="n">
-        <v>129.0025047405344</v>
+        <v>129.0025047405345</v>
       </c>
       <c r="N10" t="n">
-        <v>191.3838516213934</v>
+        <v>191.3838516213935</v>
       </c>
       <c r="O10" t="n">
-        <v>232.9868266649465</v>
+        <v>232.9868266649467</v>
       </c>
       <c r="P10" t="n">
-        <v>245.0646767218535</v>
+        <v>245.0646767218537</v>
       </c>
       <c r="Q10" t="n">
-        <v>245.0646767218535</v>
+        <v>168.467387846474</v>
       </c>
       <c r="R10" t="n">
-        <v>245.0646767218535</v>
+        <v>168.467387846474</v>
       </c>
       <c r="S10" t="n">
-        <v>25.19596313594629</v>
+        <v>168.467387846474</v>
       </c>
       <c r="T10" t="n">
-        <v>25.19596313594629</v>
+        <v>168.467387846474</v>
       </c>
       <c r="U10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="V10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="W10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="X10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.19596313594629</v>
+        <v>25.1959631359463</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2400.866139962667</v>
+        <v>1156.358483644319</v>
       </c>
       <c r="C11" t="n">
-        <v>2039.836476512108</v>
+        <v>795.3288201937601</v>
       </c>
       <c r="D11" t="n">
-        <v>1689.503631395211</v>
+        <v>499.3139660679337</v>
       </c>
       <c r="E11" t="n">
-        <v>1311.648232286819</v>
+        <v>499.3139660679337</v>
       </c>
       <c r="F11" t="n">
-        <v>908.5951809870649</v>
+        <v>499.3139660679337</v>
       </c>
       <c r="G11" t="n">
         <v>499.3139660679337</v>
@@ -5036,13 +5036,13 @@
         <v>187.7303712229721</v>
       </c>
       <c r="I11" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J11" t="n">
         <v>249.2363626397091</v>
       </c>
       <c r="K11" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L11" t="n">
         <v>1170.239882220687</v>
@@ -5057,7 +5057,7 @@
         <v>2911.753343601288</v>
       </c>
       <c r="P11" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003672</v>
       </c>
       <c r="Q11" t="n">
         <v>3555.079410784749</v>
@@ -5072,19 +5072,19 @@
         <v>3196.499641806381</v>
       </c>
       <c r="U11" t="n">
-        <v>3161.739605022894</v>
+        <v>2950.730689109752</v>
       </c>
       <c r="V11" t="n">
-        <v>3161.739605022894</v>
+        <v>2627.600655256034</v>
       </c>
       <c r="W11" t="n">
-        <v>3161.739605022894</v>
+        <v>2282.764853475773</v>
       </c>
       <c r="X11" t="n">
-        <v>3161.739605022894</v>
+        <v>1917.231948704547</v>
       </c>
       <c r="Y11" t="n">
-        <v>2779.533126536935</v>
+        <v>1535.025470218588</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I12" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J12" t="n">
-        <v>183.5040598342603</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="K12" t="n">
-        <v>502.2386301474696</v>
+        <v>389.8361585289041</v>
       </c>
       <c r="L12" t="n">
-        <v>732.2017360158188</v>
+        <v>728.8161775015586</v>
       </c>
       <c r="M12" t="n">
-        <v>894.9192481111811</v>
+        <v>1352.581702709421</v>
       </c>
       <c r="N12" t="n">
-        <v>1494.959119715748</v>
+        <v>2008.563458684744</v>
       </c>
       <c r="O12" t="n">
-        <v>2028.63859174368</v>
+        <v>2257.316872768706</v>
       </c>
       <c r="P12" t="n">
         <v>2439.960350382057</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2880.084689221464</v>
+        <v>139.7948817892691</v>
       </c>
       <c r="C13" t="n">
-        <v>2880.084689221464</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="D13" t="n">
-        <v>2880.084689221464</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="E13" t="n">
-        <v>2740.104449128924</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="F13" t="n">
-        <v>2601.147355120867</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="G13" t="n">
-        <v>2565.782289061635</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="H13" t="n">
-        <v>2565.782289061635</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="I13" t="n">
-        <v>2565.782289061635</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J13" t="n">
-        <v>2551.835552393924</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="K13" t="n">
-        <v>2654.207993306215</v>
+        <v>173.4740291279863</v>
       </c>
       <c r="L13" t="n">
-        <v>2838.561586396852</v>
+        <v>357.8276222186238</v>
       </c>
       <c r="M13" t="n">
-        <v>3042.903078319401</v>
+        <v>562.1691141411726</v>
       </c>
       <c r="N13" t="n">
-        <v>3248.005274588815</v>
+        <v>767.2713104105859</v>
       </c>
       <c r="O13" t="n">
-        <v>3422.027582375473</v>
+        <v>941.2936181972442</v>
       </c>
       <c r="P13" t="n">
-        <v>3548.535190582187</v>
+        <v>1067.801226403958</v>
       </c>
       <c r="Q13" t="n">
-        <v>3555.079410784749</v>
+        <v>1074.34544660652</v>
       </c>
       <c r="R13" t="n">
-        <v>3555.079410784749</v>
+        <v>949.2532458671442</v>
       </c>
       <c r="S13" t="n">
-        <v>3555.079410784749</v>
+        <v>949.2532458671442</v>
       </c>
       <c r="T13" t="n">
-        <v>3555.079410784749</v>
+        <v>949.2532458671442</v>
       </c>
       <c r="U13" t="n">
-        <v>3273.856997970015</v>
+        <v>668.0308330524103</v>
       </c>
       <c r="V13" t="n">
-        <v>3273.856997970015</v>
+        <v>421.2791983363766</v>
       </c>
       <c r="W13" t="n">
-        <v>3273.856997970015</v>
+        <v>139.7948817892691</v>
       </c>
       <c r="X13" t="n">
-        <v>3053.800300561851</v>
+        <v>139.7948817892691</v>
       </c>
       <c r="Y13" t="n">
-        <v>3053.800300561851</v>
+        <v>139.7948817892691</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2205.315255321269</v>
+        <v>1379.845208948774</v>
       </c>
       <c r="C14" t="n">
-        <v>1872.221432533768</v>
+        <v>1046.751386161272</v>
       </c>
       <c r="D14" t="n">
-        <v>1549.824428079927</v>
+        <v>724.354381707432</v>
       </c>
       <c r="E14" t="n">
-        <v>1199.904869634593</v>
+        <v>724.354381707432</v>
       </c>
       <c r="F14" t="n">
-        <v>824.7876589978949</v>
+        <v>349.2371710707345</v>
       </c>
       <c r="G14" t="n">
-        <v>443.4422847418203</v>
+        <v>349.2371710707345</v>
       </c>
       <c r="H14" t="n">
-        <v>159.7945305599154</v>
+        <v>159.7945305599153</v>
       </c>
       <c r="I14" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J14" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397087</v>
       </c>
       <c r="K14" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723832</v>
       </c>
       <c r="L14" t="n">
         <v>1170.239882220686</v>
       </c>
       <c r="M14" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N14" t="n">
         <v>2385.446588068709</v>
@@ -5306,22 +5306,22 @@
         <v>3431.855310502164</v>
       </c>
       <c r="T14" t="n">
-        <v>3428.376538491427</v>
+        <v>3252.371323132494</v>
       </c>
       <c r="U14" t="n">
-        <v>3210.543426457856</v>
+        <v>3034.538211098923</v>
       </c>
       <c r="V14" t="n">
-        <v>3210.543426457856</v>
+        <v>2739.344017908262</v>
       </c>
       <c r="W14" t="n">
-        <v>2893.643465340651</v>
+        <v>2422.444056791058</v>
       </c>
       <c r="X14" t="n">
-        <v>2556.046401232481</v>
+        <v>2084.846992682888</v>
       </c>
       <c r="Y14" t="n">
-        <v>2556.046401232481</v>
+        <v>1730.576354859986</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I15" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J15" t="n">
         <v>183.5040598342603</v>
@@ -5364,13 +5364,13 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M15" t="n">
-        <v>1154.938502604817</v>
+        <v>1312.556310039156</v>
       </c>
       <c r="N15" t="n">
-        <v>1494.959119715748</v>
+        <v>1906.280878354125</v>
       </c>
       <c r="O15" t="n">
-        <v>2028.638591743681</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="P15" t="n">
         <v>2439.960350382057</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2590.281461569319</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="C16" t="n">
-        <v>2590.281461569319</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="D16" t="n">
-        <v>2590.281461569319</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="E16" t="n">
-        <v>2590.281461569319</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="F16" t="n">
-        <v>2479.260208224318</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="G16" t="n">
-        <v>2346.465409531053</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="H16" t="n">
-        <v>2346.465409531053</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="I16" t="n">
-        <v>2346.465409531053</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J16" t="n">
-        <v>2360.176130356891</v>
+        <v>84.81230904153301</v>
       </c>
       <c r="K16" t="n">
-        <v>2489.928488703044</v>
+        <v>214.5646673876862</v>
       </c>
       <c r="L16" t="n">
-        <v>2701.661999227543</v>
+        <v>426.2981779121857</v>
       </c>
       <c r="M16" t="n">
-        <v>2933.383408583954</v>
+        <v>658.0195872685965</v>
       </c>
       <c r="N16" t="n">
-        <v>3165.865522287229</v>
+        <v>890.5017009718719</v>
       </c>
       <c r="O16" t="n">
-        <v>3367.267747507749</v>
+        <v>1091.903926192392</v>
       </c>
       <c r="P16" t="n">
-        <v>3521.155273148325</v>
+        <v>1245.791451832968</v>
       </c>
       <c r="Q16" t="n">
-        <v>3555.079410784749</v>
+        <v>1279.715589469392</v>
       </c>
       <c r="R16" t="n">
-        <v>3555.079410784749</v>
+        <v>1279.715589469392</v>
       </c>
       <c r="S16" t="n">
-        <v>3382.520602805809</v>
+        <v>1107.156781490452</v>
       </c>
       <c r="T16" t="n">
-        <v>3382.520602805809</v>
+        <v>917.1542381781582</v>
       </c>
       <c r="U16" t="n">
-        <v>3129.234030654132</v>
+        <v>663.8676660264811</v>
       </c>
       <c r="V16" t="n">
-        <v>3129.234030654132</v>
+        <v>445.0518719735041</v>
       </c>
       <c r="W16" t="n">
-        <v>2875.685554770081</v>
+        <v>191.5033960894535</v>
       </c>
       <c r="X16" t="n">
-        <v>2736.061232246649</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="Y16" t="n">
-        <v>2736.061232246649</v>
+        <v>71.10158821569497</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>979.7795239352599</v>
       </c>
       <c r="F17" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233952</v>
       </c>
       <c r="G17" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921537</v>
       </c>
       <c r="H17" t="n">
         <v>104.7631941350824</v>
@@ -5516,7 +5516,7 @@
         <v>249.2363626397092</v>
       </c>
       <c r="K17" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L17" t="n">
         <v>1170.239882220686</v>
@@ -5546,16 +5546,16 @@
         <v>3362.433995982161</v>
       </c>
       <c r="U17" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V17" t="n">
-        <v>2959.469363607593</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X17" t="n">
-        <v>2415.035011231885</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y17" t="n">
         <v>2115.795709833817</v>
@@ -5592,25 +5592,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J18" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K18" t="n">
-        <v>389.8361585289043</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L18" t="n">
-        <v>671.5074190775601</v>
+        <v>732.2017360158187</v>
       </c>
       <c r="M18" t="n">
-        <v>991.8427386072619</v>
+        <v>1355.967261223681</v>
       </c>
       <c r="N18" t="n">
-        <v>1647.824494582585</v>
+        <v>2011.949017199004</v>
       </c>
       <c r="O18" t="n">
-        <v>2181.503966610518</v>
+        <v>2260.702431282966</v>
       </c>
       <c r="P18" t="n">
-        <v>2592.825725248894</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q18" t="n">
         <v>2662.220283762224</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.2942540634045</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C19" t="n">
-        <v>420.2581017132405</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D19" t="n">
-        <v>361.0414928786477</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E19" t="n">
-        <v>304.0284298739975</v>
+        <v>304.0284298739965</v>
       </c>
       <c r="F19" t="n">
-        <v>248.0385129538301</v>
+        <v>248.038512953829</v>
       </c>
       <c r="G19" t="n">
-        <v>170.2750506853977</v>
+        <v>170.2750506853965</v>
       </c>
       <c r="H19" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534097</v>
       </c>
       <c r="I19" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J19" t="n">
-        <v>138.7485218715119</v>
+        <v>138.748521871512</v>
       </c>
       <c r="K19" t="n">
         <v>322.4370930476439</v>
@@ -5680,43 +5680,43 @@
         <v>588.1068164021221</v>
       </c>
       <c r="M19" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N19" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O19" t="n">
         <v>1415.521203172265</v>
       </c>
       <c r="P19" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q19" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R19" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S19" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T19" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U19" t="n">
         <v>1218.326354289324</v>
       </c>
       <c r="V19" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W19" t="n">
-        <v>856.0247572019628</v>
+        <v>856.024757201962</v>
       </c>
       <c r="X19" t="n">
-        <v>718.9352368816883</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.0426883159013</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>333.3796118921542</v>
       </c>
       <c r="H20" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I20" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J20" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K20" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L20" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M20" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N20" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O20" t="n">
         <v>2911.753343601288</v>
@@ -5832,22 +5832,22 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K21" t="n">
-        <v>481.1688835786762</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L21" t="n">
-        <v>971.1512439406609</v>
+        <v>811.598996814238</v>
       </c>
       <c r="M21" t="n">
-        <v>1594.916769148523</v>
+        <v>1435.3645220221</v>
       </c>
       <c r="N21" t="n">
-        <v>2250.898525123846</v>
+        <v>1779.885177659718</v>
       </c>
       <c r="O21" t="n">
-        <v>2250.898525123846</v>
+        <v>2028.638591743681</v>
       </c>
       <c r="P21" t="n">
-        <v>2662.220283762224</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q21" t="n">
         <v>2662.220283762224</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.2942540634037</v>
+        <v>498.2942540634032</v>
       </c>
       <c r="C22" t="n">
-        <v>420.2581017132397</v>
+        <v>420.2581017132392</v>
       </c>
       <c r="D22" t="n">
-        <v>361.0414928786469</v>
+        <v>361.0414928786464</v>
       </c>
       <c r="E22" t="n">
-        <v>304.0284298739967</v>
+        <v>304.0284298739961</v>
       </c>
       <c r="F22" t="n">
-        <v>248.0385129538292</v>
+        <v>248.0385129538287</v>
       </c>
       <c r="G22" t="n">
-        <v>170.2750506853966</v>
+        <v>170.2750506853965</v>
       </c>
       <c r="H22" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534097</v>
       </c>
       <c r="I22" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J22" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K22" t="n">
         <v>322.4370930476437</v>
@@ -5920,13 +5920,13 @@
         <v>873.7644385885114</v>
       </c>
       <c r="N22" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O22" t="n">
         <v>1415.521203172265</v>
       </c>
       <c r="P22" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q22" t="n">
         <v>1711.205292109222</v>
@@ -5947,13 +5947,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W22" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019618</v>
       </c>
       <c r="X22" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816873</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159</v>
       </c>
     </row>
     <row r="23">
@@ -5987,34 +5987,34 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J23" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K23" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L23" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M23" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N23" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O23" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P23" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q23" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R23" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S23" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T23" t="n">
         <v>3362.433995982161</v>
@@ -6075,7 +6075,7 @@
         <v>798.8439802540825</v>
       </c>
       <c r="M24" t="n">
-        <v>1422.609505461945</v>
+        <v>1123.903421684395</v>
       </c>
       <c r="N24" t="n">
         <v>1779.885177659718</v>
@@ -6133,7 +6133,7 @@
         <v>304.0284298739968</v>
       </c>
       <c r="F25" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G25" t="n">
         <v>170.2750506853969</v>
@@ -6142,10 +6142,10 @@
         <v>106.41678735341</v>
       </c>
       <c r="I25" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J25" t="n">
-        <v>138.7485218715117</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K25" t="n">
         <v>322.4370930476437</v>
@@ -6154,7 +6154,7 @@
         <v>588.1068164021219</v>
       </c>
       <c r="M25" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N25" t="n">
         <v>1160.182765121766</v>
@@ -6175,7 +6175,7 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T25" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U25" t="n">
         <v>1218.326354289324</v>
@@ -6206,16 +6206,16 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D26" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E26" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352605</v>
       </c>
       <c r="F26" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233959</v>
       </c>
       <c r="G26" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921544</v>
       </c>
       <c r="H26" t="n">
         <v>104.7631941350823</v>
@@ -6227,10 +6227,10 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K26" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L26" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M26" t="n">
         <v>1780.224142393353</v>
@@ -6306,10 +6306,10 @@
         <v>183.5040598342603</v>
       </c>
       <c r="K27" t="n">
-        <v>502.2386301474696</v>
+        <v>308.8616198920977</v>
       </c>
       <c r="L27" t="n">
-        <v>803.568102154693</v>
+        <v>500.1378964765325</v>
       </c>
       <c r="M27" t="n">
         <v>1123.903421684395</v>
@@ -6364,34 +6364,34 @@
         <v>420.2581017132396</v>
       </c>
       <c r="D28" t="n">
-        <v>361.0414928786468</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E28" t="n">
         <v>304.0284298739966</v>
       </c>
       <c r="F28" t="n">
-        <v>248.0385129538292</v>
+        <v>248.0385129538291</v>
       </c>
       <c r="G28" t="n">
-        <v>170.2750506853968</v>
+        <v>170.2750506853967</v>
       </c>
       <c r="H28" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534098</v>
       </c>
       <c r="I28" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J28" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715117</v>
       </c>
       <c r="K28" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L28" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M28" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N28" t="n">
         <v>1160.182765121766</v>
@@ -6406,10 +6406,10 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R28" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S28" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T28" t="n">
         <v>1416.581590016168</v>
@@ -6421,10 +6421,10 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W28" t="n">
-        <v>856.0247572019618</v>
+        <v>856.0247572019623</v>
       </c>
       <c r="X28" t="n">
-        <v>718.9352368816875</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y28" t="n">
         <v>589.0426883159004</v>
@@ -6455,31 +6455,31 @@
         <v>333.3796118921541</v>
       </c>
       <c r="H29" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I29" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J29" t="n">
-        <v>249.2363626397093</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K29" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L29" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M29" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N29" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O29" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P29" t="n">
-        <v>3323.269600003674</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q29" t="n">
         <v>3555.07941078475</v>
@@ -6537,25 +6537,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I30" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J30" t="n">
         <v>183.5040598342603</v>
       </c>
       <c r="K30" t="n">
-        <v>502.2386301474696</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="L30" t="n">
-        <v>755.3512198952934</v>
+        <v>673.486420196245</v>
       </c>
       <c r="M30" t="n">
-        <v>1379.116745103156</v>
+        <v>993.8217397259468</v>
       </c>
       <c r="N30" t="n">
-        <v>1723.637400740774</v>
+        <v>1649.80349570127</v>
       </c>
       <c r="O30" t="n">
-        <v>2257.316872768706</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P30" t="n">
         <v>2439.960350382057</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2342.168372738932</v>
+        <v>498.2942540634039</v>
       </c>
       <c r="C31" t="n">
-        <v>2264.132220388768</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D31" t="n">
-        <v>2204.915611554175</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E31" t="n">
-        <v>2147.902548549524</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F31" t="n">
-        <v>2091.912631629357</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G31" t="n">
-        <v>2014.149169360924</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H31" t="n">
-        <v>1950.290906028937</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I31" t="n">
-        <v>1914.975706891222</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J31" t="n">
-        <v>1982.622640547039</v>
+        <v>138.7485218715117</v>
       </c>
       <c r="K31" t="n">
-        <v>2166.311211723171</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L31" t="n">
-        <v>2431.98093507765</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M31" t="n">
-        <v>2717.638557264039</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N31" t="n">
-        <v>3004.056883797294</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O31" t="n">
-        <v>3259.395321847793</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P31" t="n">
-        <v>3467.219060318348</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q31" t="n">
-        <v>3555.07941078475</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R31" t="n">
-        <v>3512.954387133264</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S31" t="n">
-        <v>3395.426915579158</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T31" t="n">
-        <v>3260.455708691696</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U31" t="n">
-        <v>3062.200472964852</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V31" t="n">
-        <v>2898.416015336707</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W31" t="n">
-        <v>2699.89887587749</v>
+        <v>856.0247572019625</v>
       </c>
       <c r="X31" t="n">
-        <v>2562.809355557215</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y31" t="n">
-        <v>2432.916806991429</v>
+        <v>589.0426883159007</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D32" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E32" t="n">
-        <v>979.7795239352603</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F32" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G32" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H32" t="n">
         <v>104.7631941350823</v>
@@ -6701,7 +6701,7 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K32" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L32" t="n">
         <v>1170.239882220687</v>
@@ -6710,37 +6710,37 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N32" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O32" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P32" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q32" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R32" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S32" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T32" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U32" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V32" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X32" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y32" t="n">
         <v>2115.795709833817</v>
@@ -6780,16 +6780,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="K33" t="n">
-        <v>389.8361585289043</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="L33" t="n">
-        <v>811.5989968142379</v>
+        <v>518.6420442107228</v>
       </c>
       <c r="M33" t="n">
-        <v>1435.3645220221</v>
+        <v>838.9773637404246</v>
       </c>
       <c r="N33" t="n">
-        <v>1779.885177659718</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O33" t="n">
         <v>2028.63859174368</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C34" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132397</v>
       </c>
       <c r="D34" t="n">
-        <v>361.0414928786471</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E34" t="n">
-        <v>304.0284298739969</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F34" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G34" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H34" t="n">
-        <v>106.4167873534101</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I34" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J34" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715117</v>
       </c>
       <c r="K34" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476436</v>
       </c>
       <c r="L34" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M34" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N34" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O34" t="n">
         <v>1415.521203172265</v>
@@ -6895,13 +6895,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W34" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X34" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816877</v>
       </c>
       <c r="Y34" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1542.03341398477</v>
       </c>
       <c r="D35" t="n">
-        <v>1274.667745955763</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E35" t="n">
-        <v>979.7795239352613</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F35" t="n">
-        <v>659.6936497233969</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G35" t="n">
-        <v>333.3796118921555</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H35" t="n">
-        <v>104.7631941350835</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I35" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J35" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K35" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L35" t="n">
         <v>1170.239882220687</v>
@@ -6965,22 +6965,22 @@
         <v>3486.886646926998</v>
       </c>
       <c r="T35" t="n">
-        <v>3362.433995982162</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U35" t="n">
-        <v>3199.632220373423</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V35" t="n">
-        <v>2959.469363607595</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.600738915224</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X35" t="n">
         <v>2415.035011231887</v>
       </c>
       <c r="Y35" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833818</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J36" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K36" t="n">
-        <v>71.10158821569499</v>
+        <v>308.8616198920977</v>
       </c>
       <c r="L36" t="n">
-        <v>215.2118385325624</v>
+        <v>671.5074190775599</v>
       </c>
       <c r="M36" t="n">
-        <v>838.9773637404246</v>
+        <v>991.8427386072617</v>
       </c>
       <c r="N36" t="n">
-        <v>1494.959119715748</v>
+        <v>1647.824494582585</v>
       </c>
       <c r="O36" t="n">
-        <v>2028.63859174368</v>
+        <v>2181.503966610518</v>
       </c>
       <c r="P36" t="n">
-        <v>2439.960350382057</v>
+        <v>2592.825725248894</v>
       </c>
       <c r="Q36" t="n">
         <v>2662.220283762224</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.2942540634035</v>
+        <v>498.2942540634039</v>
       </c>
       <c r="C37" t="n">
-        <v>420.2581017132395</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D37" t="n">
-        <v>361.0414928786467</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E37" t="n">
-        <v>304.0284298739966</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F37" t="n">
-        <v>248.0385129538292</v>
+        <v>248.0385129538295</v>
       </c>
       <c r="G37" t="n">
-        <v>170.2750506853968</v>
+        <v>170.2750506853967</v>
       </c>
       <c r="H37" t="n">
         <v>106.41678735341</v>
@@ -7096,25 +7096,25 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K37" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L37" t="n">
-        <v>588.1068164021221</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M37" t="n">
-        <v>873.7644385885105</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N37" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O37" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P37" t="n">
         <v>1623.344941642819</v>
       </c>
       <c r="Q37" t="n">
-        <v>1711.205292109221</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R37" t="n">
         <v>1669.080268457736</v>
@@ -7126,19 +7126,19 @@
         <v>1416.581590016168</v>
       </c>
       <c r="U37" t="n">
-        <v>1218.326354289323</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V37" t="n">
         <v>1054.54189666118</v>
       </c>
       <c r="W37" t="n">
-        <v>856.0247572019618</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X37" t="n">
-        <v>718.9352368816874</v>
+        <v>718.935236881688</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.0426883159003</v>
+        <v>589.0426883159007</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>333.3796118921542</v>
       </c>
       <c r="H38" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I38" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J38" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K38" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L38" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M38" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N38" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O38" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P38" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q38" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R38" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S38" t="n">
         <v>3486.886646926997</v>
@@ -7254,16 +7254,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="K39" t="n">
-        <v>389.8361585289043</v>
+        <v>196.4591482735324</v>
       </c>
       <c r="L39" t="n">
-        <v>619.7992643972534</v>
+        <v>686.4415086355172</v>
       </c>
       <c r="M39" t="n">
-        <v>1123.903421684395</v>
+        <v>838.9773637404246</v>
       </c>
       <c r="N39" t="n">
-        <v>1779.885177659718</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O39" t="n">
         <v>2028.63859174368</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.2942540634031</v>
+        <v>498.2942540634042</v>
       </c>
       <c r="C40" t="n">
-        <v>420.2581017132391</v>
+        <v>420.2581017132402</v>
       </c>
       <c r="D40" t="n">
-        <v>361.0414928786462</v>
+        <v>361.0414928786474</v>
       </c>
       <c r="E40" t="n">
-        <v>304.0284298739959</v>
+        <v>304.0284298739971</v>
       </c>
       <c r="F40" t="n">
-        <v>248.0385129538284</v>
+        <v>248.0385129538297</v>
       </c>
       <c r="G40" t="n">
-        <v>170.275050685396</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H40" t="n">
-        <v>106.4167873534097</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I40" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J40" t="n">
         <v>138.7485218715118</v>
       </c>
       <c r="K40" t="n">
-        <v>322.4370930476434</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L40" t="n">
-        <v>588.1068164021217</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M40" t="n">
-        <v>873.7644385885112</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N40" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O40" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P40" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q40" t="n">
         <v>1711.205292109222</v>
@@ -7363,19 +7363,19 @@
         <v>1416.581590016168</v>
       </c>
       <c r="U40" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289325</v>
       </c>
       <c r="V40" t="n">
-        <v>1054.54189666118</v>
+        <v>1054.541896661181</v>
       </c>
       <c r="W40" t="n">
-        <v>856.0247572019618</v>
+        <v>856.0247572019628</v>
       </c>
       <c r="X40" t="n">
-        <v>718.9352368816873</v>
+        <v>718.9352368816883</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.0426883159</v>
+        <v>589.042688315901</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>659.6936497233958</v>
       </c>
       <c r="G41" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921543</v>
       </c>
       <c r="H41" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I41" t="n">
         <v>71.10158821569499</v>
@@ -7412,28 +7412,28 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K41" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L41" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M41" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N41" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O41" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P41" t="n">
         <v>3323.269600003673</v>
       </c>
       <c r="Q41" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R41" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S41" t="n">
         <v>3486.886646926997</v>
@@ -7488,16 +7488,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J42" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K42" t="n">
-        <v>340.1207841864434</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L42" t="n">
-        <v>830.1031445484282</v>
+        <v>732.2017360158188</v>
       </c>
       <c r="M42" t="n">
-        <v>1150.43846407813</v>
+        <v>838.9773637404246</v>
       </c>
       <c r="N42" t="n">
         <v>1494.959119715748</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>498.2942540634038</v>
+        <v>498.2942540634036</v>
       </c>
       <c r="C43" t="n">
-        <v>420.2581017132398</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D43" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786466</v>
       </c>
       <c r="E43" t="n">
-        <v>304.0284298739967</v>
+        <v>304.0284298739963</v>
       </c>
       <c r="F43" t="n">
-        <v>248.0385129538293</v>
+        <v>248.0385129538288</v>
       </c>
       <c r="G43" t="n">
-        <v>170.2750506853968</v>
+        <v>170.2750506853963</v>
       </c>
       <c r="H43" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I43" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J43" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715121</v>
       </c>
       <c r="K43" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476441</v>
       </c>
       <c r="L43" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021224</v>
       </c>
       <c r="M43" t="n">
-        <v>873.7644385885117</v>
+        <v>873.764438588512</v>
       </c>
       <c r="N43" t="n">
         <v>1160.182765121766</v>
@@ -7591,13 +7591,13 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R43" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S43" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T43" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U43" t="n">
         <v>1218.326354289324</v>
@@ -7606,13 +7606,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W43" t="n">
-        <v>856.0247572019624</v>
+        <v>856.0247572019622</v>
       </c>
       <c r="X43" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816877</v>
       </c>
       <c r="Y43" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D44" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E44" t="n">
-        <v>979.7795239352599</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F44" t="n">
-        <v>659.6936497233952</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G44" t="n">
-        <v>333.3796118921537</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H44" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I44" t="n">
         <v>71.10158821569499</v>
@@ -7649,7 +7649,7 @@
         <v>249.2363626397092</v>
       </c>
       <c r="K44" t="n">
-        <v>636.9590170723837</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L44" t="n">
         <v>1170.239882220686</v>
@@ -7670,10 +7670,10 @@
         <v>3555.07941078475</v>
       </c>
       <c r="R44" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S44" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T44" t="n">
         <v>3362.433995982161</v>
@@ -7685,10 +7685,10 @@
         <v>2959.469363607594</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X44" t="n">
-        <v>2415.035011231885</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y44" t="n">
         <v>2115.795709833817</v>
@@ -7731,19 +7731,19 @@
         <v>389.8361585289043</v>
       </c>
       <c r="L45" t="n">
-        <v>879.8185188908891</v>
+        <v>619.7992643972534</v>
       </c>
       <c r="M45" t="n">
-        <v>1372.698397458296</v>
+        <v>1067.65564476545</v>
       </c>
       <c r="N45" t="n">
-        <v>1717.219053095914</v>
+        <v>1723.637400740774</v>
       </c>
       <c r="O45" t="n">
-        <v>2250.898525123846</v>
+        <v>2257.316872768706</v>
       </c>
       <c r="P45" t="n">
-        <v>2662.220283762224</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q45" t="n">
         <v>2662.220283762224</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2342.168372738932</v>
+        <v>498.2942540634038</v>
       </c>
       <c r="C46" t="n">
-        <v>2264.132220388768</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D46" t="n">
-        <v>2204.915611554175</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E46" t="n">
-        <v>2147.902548549524</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F46" t="n">
-        <v>2091.912631629357</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G46" t="n">
-        <v>2014.149169360924</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H46" t="n">
-        <v>1950.290906028938</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I46" t="n">
-        <v>1914.975706891222</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J46" t="n">
-        <v>1982.622640547039</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K46" t="n">
-        <v>2166.311211723171</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L46" t="n">
-        <v>2431.98093507765</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M46" t="n">
-        <v>2717.638557264039</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N46" t="n">
-        <v>3004.056883797293</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O46" t="n">
-        <v>3259.395321847792</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P46" t="n">
-        <v>3467.219060318347</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q46" t="n">
-        <v>3555.07941078475</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R46" t="n">
-        <v>3512.954387133264</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S46" t="n">
-        <v>3395.426915579157</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T46" t="n">
-        <v>3260.455708691695</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U46" t="n">
-        <v>3062.200472964852</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V46" t="n">
-        <v>2898.416015336707</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W46" t="n">
-        <v>2699.89887587749</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X46" t="n">
-        <v>2562.809355557215</v>
+        <v>718.935236881688</v>
       </c>
       <c r="Y46" t="n">
-        <v>2432.916806991429</v>
+        <v>589.0426883159006</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>386.6967662831607</v>
@@ -8070,10 +8070,10 @@
         <v>375.9044444444758</v>
       </c>
       <c r="O3" t="n">
-        <v>387.1589768055869</v>
+        <v>318.4501894958922</v>
       </c>
       <c r="P3" t="n">
-        <v>170.6604620758918</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>166.8196247028477</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>163.3869453641671</v>
+        <v>405.3760678736849</v>
       </c>
       <c r="N6" t="n">
-        <v>394.5837460350002</v>
+        <v>394.5837460349999</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>419.7971733898086</v>
+        <v>364.9597713160454</v>
       </c>
       <c r="N9" t="n">
-        <v>93.06845230004626</v>
+        <v>446.291251282662</v>
       </c>
       <c r="O9" t="n">
-        <v>338.5576314265802</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>422.8354204336985</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>160.1897088239658</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>315.0430125649272</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>180.2818722178415</v>
+        <v>331.762739966172</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>284.1202891908514</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>296.2106552401067</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>249.988203340812</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>53.77481108116033</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>374.0768451173072</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>399.0225207867568</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.18840276994</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>208.8988267540106</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>319.8987335151804</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>341.3874437624585</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>361.8775757235145</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>171.9784552269827</v>
       </c>
       <c r="C13" t="n">
-        <v>159.3932961436733</v>
+        <v>91.38693550583486</v>
       </c>
       <c r="D13" t="n">
         <v>140.7619480632578</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>138.5804376916146</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>137.5675230679767</v>
       </c>
       <c r="G13" t="n">
-        <v>124.11191756412</v>
+        <v>159.123332962759</v>
       </c>
       <c r="H13" t="n">
-        <v>145.3571860156779</v>
+        <v>145.3571860156778</v>
       </c>
       <c r="I13" t="n">
-        <v>117.0995524633488</v>
+        <v>117.0995524633487</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>13.80726930103425</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>123.8412787319819</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.4897021555768</v>
+        <v>198.4897021555767</v>
       </c>
       <c r="T13" t="n">
         <v>215.7590001355975</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>244.2841183688735</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>278.6694733816365</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>217.8561304340826</v>
       </c>
       <c r="Y13" t="n">
-        <v>210.7311283971403</v>
+        <v>210.7311283971402</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>346.4203628608809</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>377.5319205135137</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>93.26306253437478</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>174.2451632053432</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>292.2422512587542</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>350.7279314446728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>144.3219729705564</v>
       </c>
       <c r="C16" t="n">
-        <v>131.7368138872471</v>
+        <v>131.736813887247</v>
       </c>
       <c r="D16" t="n">
-        <v>113.1054658068316</v>
+        <v>113.1054658068315</v>
       </c>
       <c r="E16" t="n">
-        <v>110.9239554351884</v>
+        <v>110.9239554351883</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>109.9110408115504</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>131.4668507063327</v>
       </c>
       <c r="H16" t="n">
-        <v>117.7007037592517</v>
+        <v>117.7007037592516</v>
       </c>
       <c r="I16" t="n">
-        <v>89.44307020692261</v>
+        <v>89.44307020692248</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>96.18479647555567</v>
+        <v>96.18479647555554</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>188.1025178791714</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>216.6276361124472</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>51.97156887945823</v>
+        <v>71.00185838263535</v>
       </c>
       <c r="Y16" t="n">
-        <v>183.074646140714</v>
+        <v>183.0746461407139</v>
       </c>
     </row>
     <row r="17">
@@ -26317,13 +26317,13 @@
         <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>16899.14055204178</v>
+        <v>16899.14055204177</v>
       </c>
       <c r="F2" t="n">
-        <v>18120.46300349894</v>
+        <v>18120.46300349895</v>
       </c>
       <c r="G2" t="n">
         <v>20526.04424660707</v>
@@ -26335,7 +26335,7 @@
         <v>20526.04424660706</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660706</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660707</v>
@@ -26344,13 +26344,13 @@
         <v>20526.04424660707</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660706</v>
+        <v>20526.04424660705</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660706</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660706</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660707</v>
@@ -26366,19 +26366,19 @@
         <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>23645.34018189539</v>
+        <v>23645.34018189508</v>
       </c>
       <c r="D3" t="n">
-        <v>54944.83618830863</v>
+        <v>54944.83618830908</v>
       </c>
       <c r="E3" t="n">
-        <v>574462.7092651014</v>
+        <v>574462.7092651011</v>
       </c>
       <c r="F3" t="n">
-        <v>22125.18580514095</v>
+        <v>22125.18580514101</v>
       </c>
       <c r="G3" t="n">
-        <v>43584.81844846781</v>
+        <v>43584.81844846767</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>70271.1915098624</v>
+        <v>70271.19150986243</v>
       </c>
       <c r="K3" t="n">
-        <v>26932.64029689106</v>
+        <v>26932.64029689105</v>
       </c>
       <c r="L3" t="n">
         <v>56671.52265910374</v>
       </c>
       <c r="M3" t="n">
-        <v>142998.3174046712</v>
+        <v>142998.3174046711</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6282.819963963686</v>
+        <v>6282.819963963664</v>
       </c>
       <c r="P3" t="n">
-        <v>22125.18580514088</v>
+        <v>22125.18580514104</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277804.1398925067</v>
+        <v>277804.1398925066</v>
       </c>
       <c r="C4" t="n">
-        <v>270946.5259153378</v>
+        <v>270946.525915338</v>
       </c>
       <c r="D4" t="n">
         <v>254144.8324355821</v>
       </c>
       <c r="E4" t="n">
-        <v>8914.024090548832</v>
+        <v>8914.024090548894</v>
       </c>
       <c r="F4" t="n">
-        <v>36861.66690721038</v>
+        <v>36861.66690721051</v>
       </c>
       <c r="G4" t="n">
-        <v>91917.231786919</v>
+        <v>91917.23178691897</v>
       </c>
       <c r="H4" t="n">
         <v>91917.23178691897</v>
       </c>
       <c r="I4" t="n">
-        <v>91917.23178691894</v>
+        <v>91917.23178691897</v>
       </c>
       <c r="J4" t="n">
         <v>91917.23178691897</v>
       </c>
       <c r="K4" t="n">
-        <v>91917.23178691894</v>
+        <v>91917.23178691896</v>
       </c>
       <c r="L4" t="n">
+        <v>91917.23178691893</v>
+      </c>
+      <c r="M4" t="n">
+        <v>91917.23178691893</v>
+      </c>
+      <c r="N4" t="n">
         <v>91917.23178691897</v>
       </c>
-      <c r="M4" t="n">
-        <v>91917.23178691903</v>
-      </c>
-      <c r="N4" t="n">
-        <v>91917.23178691894</v>
-      </c>
       <c r="O4" t="n">
+        <v>91917.23178691893</v>
+      </c>
+      <c r="P4" t="n">
         <v>91917.23178691897</v>
-      </c>
-      <c r="P4" t="n">
-        <v>91917.23178691894</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>54267.98797258071</v>
+        <v>54267.98797258072</v>
       </c>
       <c r="E5" t="n">
         <v>66957.25132339293</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-391353.9785857388</v>
+        <v>-391353.9785857387</v>
       </c>
       <c r="C6" t="n">
-        <v>-324200.2292574595</v>
+        <v>-324200.2292574593</v>
       </c>
       <c r="D6" t="n">
-        <v>-342831.6123498644</v>
+        <v>-342831.6123498648</v>
       </c>
       <c r="E6" t="n">
-        <v>-633434.8441270014</v>
+        <v>-633797.5344964577</v>
       </c>
       <c r="F6" t="n">
-        <v>-110148.6938390608</v>
+        <v>-110389.2519633718</v>
       </c>
       <c r="G6" t="n">
-        <v>-188838.4752466685</v>
+        <v>-188838.4752466683</v>
       </c>
       <c r="H6" t="n">
-        <v>-145253.6567982006</v>
+        <v>-145253.6567982007</v>
       </c>
       <c r="I6" t="n">
         <v>-145253.6567982006</v>
@@ -26549,19 +26549,19 @@
         <v>-172186.2970950917</v>
       </c>
       <c r="L6" t="n">
-        <v>-201925.1794573044</v>
+        <v>-201925.1794573043</v>
       </c>
       <c r="M6" t="n">
-        <v>-288251.9742028719</v>
+        <v>-288251.9742028717</v>
       </c>
       <c r="N6" t="n">
-        <v>-145253.6567982005</v>
+        <v>-145253.6567982006</v>
       </c>
       <c r="O6" t="n">
         <v>-151536.4767621643</v>
       </c>
       <c r="P6" t="n">
-        <v>-167378.8426033415</v>
+        <v>-167378.8426033417</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="F2" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="G2" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H2" t="n">
         <v>89.99103027196546</v>
@@ -26707,25 +26707,25 @@
         <v>89.99103027196546</v>
       </c>
       <c r="J2" t="n">
+        <v>89.99103027196547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>89.99103027196546</v>
+      </c>
+      <c r="L2" t="n">
         <v>89.99103027196549</v>
       </c>
-      <c r="K2" t="n">
-        <v>89.99103027196543</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>89.99103027196547</v>
       </c>
-      <c r="M2" t="n">
-        <v>89.99103027196551</v>
-      </c>
       <c r="N2" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="P2" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>68.41541235144652</v>
+        <v>68.41541235144666</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223249</v>
+        <v>562.3764353223247</v>
       </c>
       <c r="F3" t="n">
         <v>562.3764353223248</v>
@@ -26753,7 +26753,7 @@
         <v>562.3764353223248</v>
       </c>
       <c r="H3" t="n">
-        <v>562.3764353223249</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="I3" t="n">
         <v>562.3764353223249</v>
@@ -26790,16 +26790,16 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>314.9495391993286</v>
+        <v>314.9495391993287</v>
       </c>
       <c r="E4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961872</v>
       </c>
       <c r="F4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961872</v>
       </c>
       <c r="G4" t="n">
         <v>888.7698526961873</v>
@@ -26808,25 +26808,25 @@
         <v>888.7698526961873</v>
       </c>
       <c r="I4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="J4" t="n">
         <v>888.7698526961873</v>
       </c>
       <c r="K4" t="n">
-        <v>888.7698526961875</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="L4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961874</v>
       </c>
       <c r="M4" t="n">
         <v>888.7698526961874</v>
       </c>
       <c r="N4" t="n">
+        <v>888.7698526961873</v>
+      </c>
+      <c r="O4" t="n">
         <v>888.7698526961874</v>
-      </c>
-      <c r="O4" t="n">
-        <v>888.7698526961873</v>
       </c>
       <c r="P4" t="n">
         <v>888.7698526961874</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="F2" t="n">
-        <v>27.65648225642619</v>
+        <v>27.65648225642626</v>
       </c>
       <c r="G2" t="n">
-        <v>54.48102306058476</v>
+        <v>54.48102306058459</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>7.853524954954622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>27.65648225642624</v>
+      </c>
+      <c r="L2" t="n">
+        <v>54.48102306058462</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>7.85352495495458</v>
       </c>
-      <c r="K2" t="n">
-        <v>27.65648225642613</v>
-      </c>
-      <c r="L2" t="n">
-        <v>54.4810230605848</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7.853524954954608</v>
-      </c>
       <c r="P2" t="n">
-        <v>27.6564822564261</v>
+        <v>27.6564822564263</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3395197935473</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="D3" t="n">
-        <v>45.4020296646569</v>
+        <v>45.40202966465728</v>
       </c>
       <c r="E3" t="n">
-        <v>493.9610229708784</v>
+        <v>493.961022970878</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>18.67930159052446</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="D4" t="n">
-        <v>51.70750524766171</v>
+        <v>51.7075052476621</v>
       </c>
       <c r="E4" t="n">
-        <v>573.8203134968587</v>
+        <v>573.8203134968585</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052469</v>
+        <v>18.67930159052429</v>
       </c>
       <c r="L4" t="n">
-        <v>51.70750524766148</v>
+        <v>51.7075052476621</v>
       </c>
       <c r="M4" t="n">
-        <v>573.8203134968588</v>
+        <v>573.8203134968585</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="K2" t="n">
-        <v>27.65648225642619</v>
+        <v>27.65648225642626</v>
       </c>
       <c r="L2" t="n">
-        <v>54.48102306058476</v>
+        <v>54.48102306058459</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.85352495495458</v>
+        <v>7.853524954954622</v>
       </c>
       <c r="P2" t="n">
-        <v>27.65648225642613</v>
+        <v>27.65648225642624</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052446</v>
+        <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>51.70750524766171</v>
+        <v>51.7075052476621</v>
       </c>
       <c r="M4" t="n">
-        <v>573.8203134968587</v>
+        <v>573.8203134968585</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>303.5015211957423</v>
       </c>
       <c r="E2" t="n">
-        <v>137.3676377111194</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>162.313313380569</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>170.7252358559293</v>
       </c>
       <c r="H2" t="n">
         <v>339.3235460419765</v>
@@ -27424,7 +27424,7 @@
         <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>208.6835142066282</v>
@@ -27436,10 +27436,10 @@
         <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
-        <v>119.2174495481521</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.87624058033653</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27509,22 +27509,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>92.63446846132969</v>
       </c>
     </row>
     <row r="4">
@@ -27585,7 +27585,7 @@
         <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>86.81957671340956</v>
       </c>
       <c r="T4" t="n">
         <v>227.9172826158254</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>88.62808972393913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>343.4143103923933</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>91.44100766901607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>75.28528753921148</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
         <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>185.618538024317</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X5" t="n">
-        <v>106.4890667268022</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>85.94049967646592</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828962</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>37.06684722367734</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598916</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
         <v>175.4274210366964</v>
@@ -27828,7 +27828,7 @@
         <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381041</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.74958424511956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>67.78430246415189</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>91.92650654238287</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>21.70854194460242</v>
+        <v>336.6580811439309</v>
       </c>
       <c r="I8" t="n">
         <v>199.8725320440576</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>132.5923354441786</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8918758251627</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3236499611506</v>
       </c>
       <c r="V8" t="n">
-        <v>85.76786901096366</v>
+        <v>12.80271927080622</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>223.9222973419928</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.1963594838132</v>
       </c>
       <c r="H9" t="n">
         <v>110.8142108591579</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>84.33001976689756</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>91.02114946163297</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>168.949781751872</v>
       </c>
       <c r="T9" t="n">
-        <v>199.5715799783029</v>
+        <v>150.9797081073962</v>
       </c>
       <c r="U9" t="n">
-        <v>14.52738870424605</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28032,10 +28032,10 @@
         <v>151.7403407623634</v>
       </c>
       <c r="J10" t="n">
-        <v>84.6367758239318</v>
+        <v>84.63677582393179</v>
       </c>
       <c r="K10" t="n">
-        <v>7.935902156186357</v>
+        <v>7.935902156186327</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.83131598662597</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>171.7461351560178</v>
       </c>
       <c r="S10" t="n">
-        <v>4.196533136469611</v>
+        <v>221.8665595865178</v>
       </c>
       <c r="T10" t="n">
         <v>227.4184542839343</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3122999716695</v>
+        <v>144.473589508247</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="C11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="D11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="E11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="F11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="G11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="H11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="I11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="S11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="T11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="U11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="V11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="W11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="X11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="C13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="D13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="E13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="F13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="G13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="H13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="I13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="J13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="K13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="L13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="M13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="N13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="O13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="P13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="R13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="S13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="T13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="U13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="V13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="W13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="X13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.853524954954551</v>
+        <v>7.853524954954608</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="C14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="D14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="E14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="F14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="G14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="H14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="I14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="T14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="U14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="V14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="W14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="X14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="Y14" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="C16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="D16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="E16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="F16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="G16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="H16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="I16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="J16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="K16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="L16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="M16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="N16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="O16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="P16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="R16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="S16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="T16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="U16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="V16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="W16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="X16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
       <c r="Y16" t="n">
-        <v>35.51000721138074</v>
+        <v>35.51000721138087</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>7.853524954954736</v>
       </c>
       <c r="S17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="20">
@@ -28801,7 +28801,7 @@
         <v>89.99103027196546</v>
       </c>
       <c r="C20" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D20" t="n">
         <v>89.99103027196546</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7.853524954954707</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S20" t="n">
         <v>89.99103027196546</v>
@@ -29047,7 +29047,7 @@
         <v>89.99103027196546</v>
       </c>
       <c r="F23" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G23" t="n">
         <v>89.99103027196546</v>
@@ -29101,7 +29101,7 @@
         <v>89.99103027196546</v>
       </c>
       <c r="X23" t="n">
-        <v>89.9910302719648</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y23" t="n">
         <v>89.99103027196546</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.99103027196509</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196523</v>
       </c>
       <c r="I26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T32" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196411</v>
       </c>
       <c r="U32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="L34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="M34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="N34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="O34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="P34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="R34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="S34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196435</v>
       </c>
       <c r="E35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M37" t="n">
-        <v>89.99103027196421</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.99103027196551</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F41" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T41" t="n">
         <v>89.99103027196546</v>
       </c>
       <c r="U41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y41" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="C43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="D43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="E43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="F43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="G43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="H43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="I43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="J43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="K43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="L43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="M43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="N43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="O43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="P43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Q43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="R43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="S43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="T43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="U43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="V43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="W43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="X43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196541</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>7.853524954954707</v>
       </c>
       <c r="S44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y46" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
   </sheetData>
@@ -31130,7 +31130,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -31148,7 +31148,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
         <v>0.4906339916673424</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367679</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887802</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381035003</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760445</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324509</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841739</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544934</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679593</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318454</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294142</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104788</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125458</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J6" t="n">
-        <v>4.67671015524656</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -31382,22 +31382,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523081</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210614</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605604</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S6" t="n">
-        <v>0.919449770552396</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467892</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994849</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259059</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166742</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471434</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988743</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815848031</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150904</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P7" t="n">
-        <v>5.01918103713195</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750111</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815375</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2750368335736542</v>
+        <v>0.2750368335736547</v>
       </c>
       <c r="H8" t="n">
-        <v>2.816720971836186</v>
+        <v>2.816720971836192</v>
       </c>
       <c r="I8" t="n">
-        <v>10.60335752634831</v>
+        <v>10.60335752634833</v>
       </c>
       <c r="J8" t="n">
-        <v>23.34340745352195</v>
+        <v>23.343407453522</v>
       </c>
       <c r="K8" t="n">
-        <v>34.98571661869474</v>
+        <v>34.98571661869481</v>
       </c>
       <c r="L8" t="n">
-        <v>43.40287511417446</v>
+        <v>43.40287511417456</v>
       </c>
       <c r="M8" t="n">
-        <v>48.29406140323993</v>
+        <v>48.29406140324004</v>
       </c>
       <c r="N8" t="n">
-        <v>49.07550980663108</v>
+        <v>49.07550980663118</v>
       </c>
       <c r="O8" t="n">
-        <v>46.34061229278306</v>
+        <v>46.34061229278315</v>
       </c>
       <c r="P8" t="n">
-        <v>39.55064046393346</v>
+        <v>39.55064046393355</v>
       </c>
       <c r="Q8" t="n">
-        <v>29.70088386157697</v>
+        <v>29.70088386157703</v>
       </c>
       <c r="R8" t="n">
-        <v>17.27678249697107</v>
+        <v>17.2767824969711</v>
       </c>
       <c r="S8" t="n">
-        <v>6.26740184505965</v>
+        <v>6.267401845059663</v>
       </c>
       <c r="T8" t="n">
-        <v>1.203973738968672</v>
+        <v>1.203973738968674</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02200294668589233</v>
+        <v>0.02200294668589237</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.147157679397451</v>
+        <v>0.1471576793974513</v>
       </c>
       <c r="H9" t="n">
-        <v>1.42123337733854</v>
+        <v>1.421233377338543</v>
       </c>
       <c r="I9" t="n">
-        <v>5.066613084517503</v>
+        <v>5.066613084517513</v>
       </c>
       <c r="J9" t="n">
-        <v>13.90317356096707</v>
+        <v>13.9031735609671</v>
       </c>
       <c r="K9" t="n">
-        <v>23.76273808059629</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>31.95193385338076</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>37.28639973153835</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>38.27325978328705</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>35.01255541348037</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>28.10066248072911</v>
       </c>
       <c r="Q9" t="n">
-        <v>18.78454868940094</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>9.136684691010164</v>
+        <v>9.136684691010183</v>
       </c>
       <c r="S9" t="n">
-        <v>2.73338935196581</v>
+        <v>2.733389351965815</v>
       </c>
       <c r="T9" t="n">
-        <v>0.593148716518673</v>
+        <v>0.5931487165186742</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009681426276148097</v>
+        <v>0.009681426276148116</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1233720550599855</v>
+        <v>0.1233720550599858</v>
       </c>
       <c r="H10" t="n">
-        <v>1.096889725896963</v>
+        <v>1.096889725896965</v>
       </c>
       <c r="I10" t="n">
-        <v>3.710134164894838</v>
+        <v>3.710134164894846</v>
       </c>
       <c r="J10" t="n">
-        <v>8.722404292740976</v>
+        <v>8.722404292740993</v>
       </c>
       <c r="K10" t="n">
-        <v>14.3335896696965</v>
+        <v>14.33358966969653</v>
       </c>
       <c r="L10" t="n">
-        <v>18.34205989500912</v>
+        <v>18.34205989500916</v>
       </c>
       <c r="M10" t="n">
-        <v>19.33913041272118</v>
+        <v>19.33913041272122</v>
       </c>
       <c r="N10" t="n">
-        <v>18.87928911658852</v>
+        <v>18.87928911658856</v>
       </c>
       <c r="O10" t="n">
-        <v>17.4380792006605</v>
+        <v>17.43807920066054</v>
       </c>
       <c r="P10" t="n">
-        <v>14.92128927743679</v>
+        <v>14.92128927743682</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.33072726506842</v>
+        <v>10.33072726506844</v>
       </c>
       <c r="R10" t="n">
-        <v>5.547256221151711</v>
+        <v>5.547256221151723</v>
       </c>
       <c r="S10" t="n">
-        <v>2.150038450454474</v>
+        <v>2.150038450454479</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5271351443472106</v>
+        <v>0.5271351443472118</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006729384821453763</v>
+        <v>0.006729384821453777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.260809790240501</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H11" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430052</v>
       </c>
       <c r="I11" t="n">
-        <v>87.15986943824699</v>
+        <v>87.15986943824694</v>
       </c>
       <c r="J11" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K11" t="n">
-        <v>287.5834833553053</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L11" t="n">
-        <v>356.7727409733781</v>
+        <v>356.7727409733779</v>
       </c>
       <c r="M11" t="n">
-        <v>396.9784170805676</v>
+        <v>396.9784170805674</v>
       </c>
       <c r="N11" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970882</v>
       </c>
       <c r="O11" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453843</v>
       </c>
       <c r="P11" t="n">
-        <v>325.107273848822</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q11" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358339</v>
       </c>
       <c r="R11" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S11" t="n">
-        <v>51.51820309510546</v>
+        <v>51.51820309510543</v>
       </c>
       <c r="T11" t="n">
-        <v>9.896694856777795</v>
+        <v>9.896694856777792</v>
       </c>
       <c r="U11" t="n">
-        <v>0.18086478321924</v>
+        <v>0.1808647832192399</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H12" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I12" t="n">
-        <v>41.64768884226653</v>
+        <v>41.6476888422665</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2844414460208</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>195.3303133892645</v>
+        <v>195.3303133892644</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>110.1180940447529</v>
       </c>
       <c r="M12" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506669</v>
       </c>
       <c r="N12" t="n">
-        <v>314.6071720582882</v>
+        <v>314.6071720582881</v>
       </c>
       <c r="O12" t="n">
-        <v>287.8040989333034</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>230.9881626515414</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R12" t="n">
-        <v>75.1037813058758</v>
+        <v>75.10378130587577</v>
       </c>
       <c r="S12" t="n">
-        <v>22.46853022254759</v>
+        <v>22.46853022254758</v>
       </c>
       <c r="T12" t="n">
-        <v>4.875697585483174</v>
+        <v>4.875697585483172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07958157103617809</v>
+        <v>0.07958157103617806</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H13" t="n">
-        <v>9.016461536807117</v>
+        <v>9.016461536807114</v>
       </c>
       <c r="I13" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J13" t="n">
-        <v>71.69838586068394</v>
+        <v>71.69838586068391</v>
       </c>
       <c r="K13" t="n">
         <v>117.8224728429395</v>
@@ -31926,10 +31926,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M13" t="n">
-        <v>158.9681454797188</v>
+        <v>158.9681454797187</v>
       </c>
       <c r="N13" t="n">
-        <v>155.1882382914869</v>
+        <v>155.1882382914868</v>
       </c>
       <c r="O13" t="n">
         <v>143.3414560064182</v>
@@ -31938,19 +31938,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.91884173367106</v>
+        <v>84.91884173367103</v>
       </c>
       <c r="R13" t="n">
-        <v>45.59858769023308</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S13" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T13" t="n">
-        <v>4.333064337729387</v>
+        <v>4.333064337729385</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05531571494973694</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,16 +32084,16 @@
         <v>262.645711609733</v>
       </c>
       <c r="M15" t="n">
-        <v>306.495157250667</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>314.6071720582881</v>
+        <v>251.7211239165157</v>
       </c>
       <c r="O15" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P15" t="n">
-        <v>230.9881626515413</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>154.4094695624617</v>
@@ -32239,7 +32239,7 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L17" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733781</v>
       </c>
       <c r="M17" t="n">
         <v>396.9784170805675</v>
@@ -32312,28 +32312,28 @@
         <v>41.64768884226651</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K18" t="n">
         <v>195.3303133892645</v>
       </c>
       <c r="L18" t="n">
-        <v>52.23045927303707</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N18" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8040989333034</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>230.9881626515413</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R18" t="n">
         <v>75.10378130587578</v>
@@ -32461,25 +32461,25 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.260809790240501</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H20" t="n">
         <v>23.15351826430053</v>
       </c>
       <c r="I20" t="n">
-        <v>87.15986943824699</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J20" t="n">
         <v>191.8834049344248</v>
       </c>
       <c r="K20" t="n">
-        <v>287.5834833553053</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L20" t="n">
-        <v>356.7727409733781</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M20" t="n">
-        <v>396.9784170805676</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N20" t="n">
         <v>403.4019428970884</v>
@@ -32488,19 +32488,19 @@
         <v>380.9210155453844</v>
       </c>
       <c r="P20" t="n">
-        <v>325.107273848822</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q20" t="n">
         <v>244.142023235834</v>
       </c>
       <c r="R20" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S20" t="n">
-        <v>51.51820309510546</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T20" t="n">
-        <v>9.896694856777795</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U20" t="n">
         <v>0.18086478321924</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H21" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I21" t="n">
-        <v>41.64768884226653</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J21" t="n">
         <v>114.2844414460208</v>
       </c>
       <c r="K21" t="n">
-        <v>174.047741097554</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L21" t="n">
-        <v>262.645711609733</v>
+        <v>80.19925333173671</v>
       </c>
       <c r="M21" t="n">
         <v>306.495157250667</v>
       </c>
       <c r="N21" t="n">
-        <v>314.6071720582882</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515413</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R21" t="n">
-        <v>75.1037813058758</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S21" t="n">
         <v>22.46853022254759</v>
       </c>
       <c r="T21" t="n">
-        <v>4.875697585483174</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07958157103617809</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H22" t="n">
-        <v>9.016461536807117</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I22" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J22" t="n">
-        <v>71.69838586068394</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K22" t="n">
         <v>117.8224728429395</v>
@@ -32649,19 +32649,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.91884173367106</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R22" t="n">
-        <v>45.59858769023308</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S22" t="n">
         <v>17.67337092644092</v>
       </c>
       <c r="T22" t="n">
-        <v>4.333064337729387</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05531571494973694</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,10 +32795,10 @@
         <v>262.645711609733</v>
       </c>
       <c r="M24" t="n">
-        <v>306.495157250667</v>
+        <v>4.771840303646968</v>
       </c>
       <c r="N24" t="n">
-        <v>12.88385511126813</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -33026,13 +33026,13 @@
         <v>114.2844414460208</v>
       </c>
       <c r="K27" t="n">
-        <v>195.3303133892645</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>262.645711609733</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N27" t="n">
         <v>314.6071720582882</v>
@@ -33263,22 +33263,22 @@
         <v>114.2844414460208</v>
       </c>
       <c r="K30" t="n">
-        <v>195.3303133892645</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>23.38331704997441</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M30" t="n">
-        <v>306.495157250667</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8040989333034</v>
+        <v>131.3956383418666</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q30" t="n">
         <v>154.4094695624618</v>
@@ -33500,19 +33500,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>195.3303133892645</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>193.7371034514995</v>
+        <v>219.7751011380593</v>
       </c>
       <c r="M33" t="n">
-        <v>306.495157250667</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P33" t="n">
         <v>230.9881626515414</v>
@@ -33734,16 +33734,16 @@
         <v>41.64768884226653</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>134.0229225425385</v>
       </c>
       <c r="M36" t="n">
-        <v>306.495157250667</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>314.6071720582882</v>
@@ -33755,7 +33755,7 @@
         <v>230.9881626515414</v>
       </c>
       <c r="Q36" t="n">
-        <v>154.4094695624618</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>75.1037813058758</v>
@@ -33974,19 +33974,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>195.3303133892645</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M39" t="n">
-        <v>185.6250886438784</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>314.6071720582882</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P39" t="n">
         <v>230.9881626515414</v>
@@ -34208,19 +34208,19 @@
         <v>41.64768884226653</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K42" t="n">
-        <v>145.112763548395</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L42" t="n">
-        <v>262.645711609733</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O42" t="n">
         <v>287.8040989333034</v>
@@ -34369,7 +34369,7 @@
         <v>191.8834049344248</v>
       </c>
       <c r="K44" t="n">
-        <v>287.5834833553053</v>
+        <v>287.5834833553051</v>
       </c>
       <c r="L44" t="n">
         <v>356.7727409733781</v>
@@ -34378,7 +34378,7 @@
         <v>396.9784170805676</v>
       </c>
       <c r="N44" t="n">
-        <v>403.4019428970886</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O44" t="n">
         <v>380.9210155453844</v>
@@ -34451,22 +34451,22 @@
         <v>195.3303133892645</v>
       </c>
       <c r="L45" t="n">
-        <v>262.645711609733</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>174.2874333714192</v>
+        <v>128.8091523621162</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>314.6071720582882</v>
       </c>
       <c r="O45" t="n">
         <v>287.8040989333034</v>
       </c>
       <c r="P45" t="n">
-        <v>230.9881626515414</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R45" t="n">
         <v>75.1037813058758</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>127.8998415301111</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>244.5627323611424</v>
@@ -34790,13 +34790,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="O3" t="n">
-        <v>244.5627323611424</v>
+        <v>175.8539450514478</v>
       </c>
       <c r="P3" t="n">
-        <v>36.68605466156158</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P5" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988703</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>28.9781857284887</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>21.25291144214878</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.94078250313</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025438</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.39411809890943</v>
+        <v>11.39411809890948</v>
       </c>
       <c r="K8" t="n">
-        <v>139.0412781448789</v>
+        <v>139.041278144879</v>
       </c>
       <c r="L8" t="n">
         <v>225.2976746946377</v>
       </c>
       <c r="M8" t="n">
-        <v>267.4613616687997</v>
+        <v>267.4613616687998</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0093706220243</v>
+        <v>257.0093706220244</v>
       </c>
       <c r="O8" t="n">
-        <v>197.0425821338417</v>
+        <v>197.0425821338418</v>
       </c>
       <c r="P8" t="n">
         <v>130.1163528801466</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.71018464703216</v>
+        <v>19.71018464703222</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>13.15658223470922</v>
+        <v>13.15658223470925</v>
       </c>
       <c r="K9" t="n">
-        <v>150.3865361188159</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>264.2378993769657</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>314.9495391993286</v>
+        <v>222.8257373940271</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>314.9495391993287</v>
       </c>
       <c r="O9" t="n">
-        <v>230.9739423956161</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>212.589023706336</v>
       </c>
       <c r="Q9" t="n">
-        <v>88.88006233922852</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>45.93208515532526</v>
+        <v>45.9320851553253</v>
       </c>
       <c r="M10" t="n">
-        <v>58.92300737456177</v>
+        <v>58.92300737456181</v>
       </c>
       <c r="N10" t="n">
-        <v>63.01146149581712</v>
+        <v>63.01146149581716</v>
       </c>
       <c r="O10" t="n">
-        <v>42.02320711470018</v>
+        <v>42.02320711470021</v>
       </c>
       <c r="P10" t="n">
-        <v>12.19984854233028</v>
+        <v>12.19984854233031</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K11" t="n">
-        <v>391.6390448814895</v>
+        <v>391.6390448814894</v>
       </c>
       <c r="L11" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538411</v>
       </c>
       <c r="M11" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461272</v>
       </c>
       <c r="N11" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124815</v>
       </c>
       <c r="O11" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864429</v>
       </c>
       <c r="P11" t="n">
-        <v>415.6729862650351</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q11" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212891</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>321.9541114274841</v>
+        <v>321.954111427484</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>342.4040595683379</v>
       </c>
       <c r="M12" t="n">
-        <v>164.3611233286487</v>
+        <v>630.0661870786485</v>
       </c>
       <c r="N12" t="n">
-        <v>606.1008804086533</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O12" t="n">
-        <v>539.0701737655885</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>415.4765238771483</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>224.5049832122893</v>
@@ -35583,10 +35583,10 @@
         <v>175.7801088754125</v>
       </c>
       <c r="P13" t="n">
-        <v>127.7854628350645</v>
+        <v>127.7854628350646</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.610323436931225</v>
+        <v>6.610323436931253</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>494.931677133318</v>
       </c>
       <c r="M15" t="n">
-        <v>164.3611233286487</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>343.4551687989206</v>
+        <v>599.7217861767359</v>
       </c>
       <c r="O15" t="n">
         <v>539.0701737655884</v>
       </c>
       <c r="P15" t="n">
-        <v>415.4765238771482</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>224.5049832122893</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>13.84921295539189</v>
+        <v>13.84921295539202</v>
       </c>
       <c r="K16" t="n">
-        <v>131.0629882284374</v>
+        <v>131.0629882284375</v>
       </c>
       <c r="L16" t="n">
-        <v>213.8722328530297</v>
+        <v>213.8722328530298</v>
       </c>
       <c r="M16" t="n">
-        <v>234.0620296529401</v>
+        <v>234.0620296529402</v>
       </c>
       <c r="N16" t="n">
-        <v>234.8304178820962</v>
+        <v>234.8304178820963</v>
       </c>
       <c r="O16" t="n">
-        <v>203.4365911318386</v>
+        <v>203.4365911318387</v>
       </c>
       <c r="P16" t="n">
-        <v>155.4419450914907</v>
+        <v>155.4419450914908</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.2668056933574</v>
+        <v>34.26680569335753</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K18" t="n">
         <v>321.9541114274841</v>
       </c>
       <c r="L18" t="n">
-        <v>284.5164247966221</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N18" t="n">
         <v>662.6078343185084</v>
       </c>
       <c r="O18" t="n">
-        <v>539.0701737655884</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>415.4765238771482</v>
+        <v>181.0686051505969</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>68.33023601597665</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K19" t="n">
         <v>185.5440112890221</v>
@@ -36051,16 +36051,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N19" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O19" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P19" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.74782875394216</v>
+        <v>88.74782875394212</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K20" t="n">
-        <v>391.6390448814895</v>
+        <v>391.6390448814894</v>
       </c>
       <c r="L20" t="n">
         <v>538.6675405538413</v>
@@ -36130,13 +36130,13 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N20" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O20" t="n">
         <v>531.622985386443</v>
       </c>
       <c r="P20" t="n">
-        <v>415.6729862650351</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q20" t="n">
         <v>234.1513240212892</v>
@@ -36200,25 +36200,25 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K21" t="n">
-        <v>300.6715391357736</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L21" t="n">
-        <v>494.931677133318</v>
+        <v>312.4852188553217</v>
       </c>
       <c r="M21" t="n">
-        <v>630.0661870786487</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N21" t="n">
-        <v>662.6078343185084</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>415.4765238771483</v>
+        <v>415.4765238771482</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K22" t="n">
         <v>185.5440112890221</v>
@@ -36288,7 +36288,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N22" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O22" t="n">
         <v>257.9176141924233</v>
@@ -36297,7 +36297,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394212</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>494.931677133318</v>
       </c>
       <c r="M24" t="n">
-        <v>630.0661870786487</v>
+        <v>328.3428701316286</v>
       </c>
       <c r="N24" t="n">
-        <v>360.8845173714884</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
@@ -36674,13 +36674,13 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K27" t="n">
-        <v>321.9541114274841</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>304.3732040477003</v>
+        <v>193.2083601862979</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N27" t="n">
         <v>662.6078343185084</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.33023601597665</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K28" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L28" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M28" t="n">
         <v>288.5430527135248</v>
@@ -36771,7 +36771,7 @@
         <v>209.9229681520755</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.74782875394216</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K30" t="n">
-        <v>321.9541114274841</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>255.6692825735594</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M30" t="n">
-        <v>630.0661870786487</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O30" t="n">
-        <v>539.0701737655885</v>
+        <v>382.6617131741517</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q30" t="n">
         <v>224.5049832122893</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.3302360159766</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K31" t="n">
         <v>185.5440112890221</v>
@@ -36999,7 +36999,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N31" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O31" t="n">
         <v>257.9176141924233</v>
@@ -37008,7 +37008,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.7478287539421</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>321.9541114274841</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>426.0230689750845</v>
+        <v>452.0610666616443</v>
       </c>
       <c r="M33" t="n">
-        <v>630.0661870786487</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P33" t="n">
         <v>415.4765238771483</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K34" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L34" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M34" t="n">
         <v>288.5430527135248</v>
@@ -37245,7 +37245,7 @@
         <v>209.9229681520755</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>145.5659094109772</v>
+        <v>366.3088880661235</v>
       </c>
       <c r="M36" t="n">
-        <v>630.0661870786487</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
         <v>662.6078343185084</v>
@@ -37403,7 +37403,7 @@
         <v>415.4765238771483</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.5049832122893</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.33023601597668</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K37" t="n">
-        <v>185.5440112890222</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L37" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M37" t="n">
-        <v>288.5430527135236</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N37" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O37" t="n">
-        <v>257.9176141924234</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P37" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.74782875394219</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>321.9541114274841</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M39" t="n">
-        <v>509.19611847186</v>
+        <v>154.0766213180883</v>
       </c>
       <c r="N39" t="n">
         <v>662.6078343185084</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>539.0701737655885</v>
       </c>
       <c r="P39" t="n">
         <v>415.4765238771483</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.3302360159766</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K40" t="n">
         <v>185.5440112890221</v>
@@ -37710,7 +37710,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N40" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O40" t="n">
         <v>257.9176141924233</v>
@@ -37719,7 +37719,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.7478287539421</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K42" t="n">
-        <v>271.7365615866146</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L42" t="n">
-        <v>494.931677133318</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>107.8541694187937</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O42" t="n">
         <v>539.0701737655885</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597658</v>
       </c>
       <c r="K43" t="n">
         <v>185.5440112890221</v>
@@ -37947,7 +37947,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N43" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O43" t="n">
         <v>257.9176141924233</v>
@@ -37956,7 +37956,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394209</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>179.9341155798123</v>
       </c>
       <c r="K44" t="n">
-        <v>391.6390448814895</v>
+        <v>391.6390448814893</v>
       </c>
       <c r="L44" t="n">
         <v>538.6675405538413</v>
@@ -38026,7 +38026,7 @@
         <v>616.1457173461273</v>
       </c>
       <c r="N44" t="n">
-        <v>611.3358037124818</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O44" t="n">
         <v>531.622985386443</v>
@@ -38099,22 +38099,22 @@
         <v>321.9541114274841</v>
       </c>
       <c r="L45" t="n">
-        <v>494.931677133318</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>497.8584631994008</v>
+        <v>452.3801821900978</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O45" t="n">
         <v>539.0701737655885</v>
       </c>
       <c r="P45" t="n">
-        <v>415.4765238771483</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>68.3302360159766</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K46" t="n">
         <v>185.5440112890221</v>
@@ -38184,16 +38184,16 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N46" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O46" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P46" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.7478287539421</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
